--- a/problem_list.xlsx
+++ b/problem_list.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>986A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +54,44 @@
   </si>
   <si>
     <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leetcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly423A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/adjacent-increasing-subarrays-detection-i/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIV2 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察写循环
+考察代码功底
+基础难度需要写过没有bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,9 +144,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,59 +433,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/problem_list.xlsx
+++ b/problem_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>986A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>循环遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly423B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly423C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly423D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,6 +519,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/problem_list.xlsx
+++ b/problem_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>986A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>weekly423D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/adjacent-increasing-subarrays-detection-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考察语言编程入门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +464,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,12 +535,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -548,8 +576,9 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>